--- a/biology/Botanique/Mademoiselle_Marie_van_Houtte/Mademoiselle_Marie_van_Houtte.xlsx
+++ b/biology/Botanique/Mademoiselle_Marie_van_Houtte/Mademoiselle_Marie_van_Houtte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Mademoiselle Marie van Houtte' est un cultivar de rosier obtenu en 1871 par le rosiériste lyonnais Jean-Claude Ducher (1820-1874)[2],[3]. Ce rosier rend hommage à la fille du fameux horticulteur belge Louis van Houtte et était très en vogue dans toute l'Europe à la fin du XIXe siècle et à la Belle Époque. Il est toujours disponible dans les catalogues[4].
+'Mademoiselle Marie van Houtte' est un cultivar de rosier obtenu en 1871 par le rosiériste lyonnais Jean-Claude Ducher (1820-1874),. Ce rosier rend hommage à la fille du fameux horticulteur belge Louis van Houtte et était très en vogue dans toute l'Europe à la fin du XIXe siècle et à la Belle Époque. Il est toujours disponible dans les catalogues.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier thé issu d'un croisement 'Madame de Tartas' x 'Madame Falcot', présente un buisson (100 à 200 cm) érigé aux rameaux rougeâtres avec un feuillage vert clair aux feuilles à 5 ou 7 folioles. Ses grosses fleurs pleines et fortement parfumées, fleurissant par deux ou trois, sont bicolores : blanc jaunâtre avec les revers rose vif devenant rose pâle en fin de floraison. Celle-ci est bien remontante[5],[6]. Cette variété nécessite une exposition ensoleillée. Elle apprécie le climat méditerranéen[7] et supporte les hivers à -15°/-20°[8].
-Cette rose est parfaite pour les massifs et aussi pour les bouquets. L'écrivain russe Anton Tchekhov en possédait dans sa villa de Yalta en Crimée[9]. On peut notamment l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier thé issu d'un croisement 'Madame de Tartas' x 'Madame Falcot', présente un buisson (100 à 200 cm) érigé aux rameaux rougeâtres avec un feuillage vert clair aux feuilles à 5 ou 7 folioles. Ses grosses fleurs pleines et fortement parfumées, fleurissant par deux ou trois, sont bicolores : blanc jaunâtre avec les revers rose vif devenant rose pâle en fin de floraison. Celle-ci est bien remontante,. Cette variété nécessite une exposition ensoleillée. Elle apprécie le climat méditerranéen et supporte les hivers à -15°/-20°.
+Cette rose est parfaite pour les massifs et aussi pour les bouquets. L'écrivain russe Anton Tchekhov en possédait dans sa villa de Yalta en Crimée. On peut notamment l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Mademoiselle Marie van Houtte' a donné naissance à 'Maman Cochet' (Cochet 1892) par croisement avec 'Madame Lombard'.
 </t>
@@ -575,7 +591,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille de vermeil de la Société centrale d'horticulture de France</t>
         </is>
